--- a/STATASTICS/ASSIGEMENT/statistic_assignment.xlsx
+++ b/STATASTICS/ASSIGEMENT/statistic_assignment.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C0CE8C-1FB6-41B1-BA33-7648E12C25D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986E253-09C6-40F0-BF09-C33F22385CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ques)1" sheetId="1" r:id="rId1"/>
+    <sheet name=",2),3)" sheetId="1" r:id="rId1"/>
     <sheet name="ques)6" sheetId="9" r:id="rId2"/>
     <sheet name="ques)7" sheetId="10" r:id="rId3"/>
     <sheet name="ques)8" sheetId="12" r:id="rId4"/>
@@ -31,9 +31,15 @@
     <sheet name="ques)20" sheetId="24" r:id="rId16"/>
     <sheet name="Ques)21" sheetId="25" r:id="rId17"/>
     <sheet name="QUES)22" sheetId="26" r:id="rId18"/>
-    <sheet name="ques)2" sheetId="4" r:id="rId19"/>
+    <sheet name="ques) 4 ),5),6)" sheetId="4" r:id="rId19"/>
     <sheet name="ques)4" sheetId="7" r:id="rId20"/>
     <sheet name="ques)5" sheetId="8" r:id="rId21"/>
+    <sheet name="QUES)23" sheetId="35" r:id="rId22"/>
+    <sheet name="ques)24" sheetId="38" r:id="rId23"/>
+    <sheet name="QUES)25" sheetId="39" r:id="rId24"/>
+    <sheet name="QUES)26" sheetId="40" r:id="rId25"/>
+    <sheet name="QUES)27" sheetId="36" r:id="rId26"/>
+    <sheet name="Sheet4" sheetId="37" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="137">
   <si>
     <t>product_sales</t>
   </si>
@@ -415,12 +421,83 @@
   <si>
     <t>exam score</t>
   </si>
+  <si>
+    <t>Questions on Measure of Skewness and Kurtosis</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Questions on Percentile and Quartiles</t>
+  </si>
+  <si>
+    <t>analyze the salary distribution</t>
+  </si>
+  <si>
+    <t>salaries</t>
+  </si>
+  <si>
+    <t>Quartiles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Percentile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Amounts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile </t>
+  </si>
+  <si>
+    <t>Commute Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9 0.4</t>
+  </si>
+  <si>
+    <t>Defect RateS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +744,21 @@
       <i/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -934,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1187,6 +1279,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8188,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8210,6 +8326,17 @@
       <c r="O2" s="139"/>
       <c r="P2" s="140"/>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J3" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+    </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
@@ -8556,8 +8683,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="J2:P2"/>
+    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11451,7 +11579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -11849,8 +11977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12172,7 +12300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -13879,8 +14007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14195,6 +14323,3235 @@
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2AECE6-3734-4248-AF1F-9F2814888828}">
+  <dimension ref="A2:N105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="I2" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I3" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>40</v>
+      </c>
+      <c r="E6" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="152"/>
+      <c r="I6" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="131"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="2">
+        <f>QUARTILE(A6:A105,1)</f>
+        <v>128.75</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <f>PERCENTILE(A6:A105,0.1)</f>
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="2">
+        <f>QUARTILE(A6:A105,2)</f>
+        <v>252.5</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <f>PERCENTILE(A6:A105,0.25)</f>
+        <v>128.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="4">
+        <f>QUARTILE(A6:A105,3)</f>
+        <v>376.25</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+      <c r="J9">
+        <f>PERCENTILE(A6:A105,0.75)</f>
+        <v>376.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <f>PERCENTILE(A6:A105,0.9)</f>
+        <v>450.50000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="10">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0175BE79-FF62-4AB7-B091-837CF8AA72F2}">
+  <dimension ref="A2:O106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I2" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="154" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="G7" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="152"/>
+      <c r="J7" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="152"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="2">
+        <f>QUARTILE(A7:A106,1)</f>
+        <v>143.75</v>
+      </c>
+      <c r="J8" s="1">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <f>PERCENTILE(A7:A106,0.15)</f>
+        <v>94.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="2">
+        <f>QUARTILE(A7:A106,2)</f>
+        <v>267.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2">
+        <f>PERCENTILE(A7:A106,0.5)</f>
+        <v>267.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="4">
+        <f>QUARTILE(A7:A106,3)</f>
+        <v>391.25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>85</v>
+      </c>
+      <c r="K10" s="4">
+        <f>PERCENTILE(A7:A106,0.85)</f>
+        <v>440.74999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:O3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FD86-8E00-453A-B87E-14256603355E}">
+  <dimension ref="A2:L113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="G2" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="154" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="G4" s="155" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2">
+        <f>QUARTILE(A4:A113,1)</f>
+        <v>156.25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <f>PERCENTILE(A4:A113,0.2)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="2">
+        <f>QUARTILE(A4:A113,2)</f>
+        <v>292.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2">
+        <f>PERCENTILE(A4:A113,0.4)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="4">
+        <f>QUARTILE(A4:A113,3)</f>
+        <v>428.75</v>
+      </c>
+      <c r="G7" s="3">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4">
+        <f>PERCENTILE(A4:A113,0.8)</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED372971-25B0-4980-9157-B45305244429}">
+  <dimension ref="A1:M123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="H1" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="154" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="I5" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="2">
+        <f>QUARTILE(A4:A123,1)</f>
+        <v>163.75</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
+        <f>PERCENTILE(A4:A123,0.3)</f>
+        <v>193.49999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="2">
+        <f>QUARTILE(A4:A123,2)</f>
+        <v>312.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2">
+        <f>PERCENTILE(A4:A123,0.5)</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="4">
+        <f>QUARTILE(A4:A123,3)</f>
+        <v>461.25</v>
+      </c>
+      <c r="I8" s="3">
+        <v>70</v>
+      </c>
+      <c r="J8" s="4">
+        <f>PERCENTILE(A4:A123,0.7)</f>
+        <v>431.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0FA8C-7434-4B03-A069-033632F3982A}">
+  <dimension ref="A1:L123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="G1" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="155" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="G3" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2">
+        <f>QUARTILE(A4:A123,1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <f>PERCENTILE(A4:A123,0.25)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="2">
+        <f>QUARTILE(A4:A123,2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <f>PERCENTILE(A4:A123,0.5)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4">
+        <f>QUARTILE(A4:A123,3)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4">
+        <f>PERCENTILE(A4:A123,0.75)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AD65C0-028D-4262-A3B2-BB27976CDB93}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
